--- a/import/prep/excel/63-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค63 (1-31กค63).xlsx
+++ b/import/prep/excel/63-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค63 (1-31กค63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB7CDB-E0AC-C74E-ACE8-8F46C24795A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C87B2-6E94-4245-A87C-950ADCF8434F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$R$836</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$W$252</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11749,7 +11749,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12117,6 +12117,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12138,21 +12174,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12171,36 +12192,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -54897,7 +54889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -67104,8 +67096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB273"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B220"/>
+    <sheetView topLeftCell="L239" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67134,32 +67126,32 @@
     <col min="29" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="157" t="s">
         <v>3216</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
       <c r="R1" s="54"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
       <c r="V1" s="24"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="55"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -67186,7 +67178,7 @@
       <c r="T2" s="55"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="135" t="s">
         <v>6</v>
       </c>
@@ -67196,29 +67188,29 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="158" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="162" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="126"/>
       <c r="K3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="157" t="s">
+      <c r="L3" s="164" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="149" t="s">
@@ -67236,37 +67228,37 @@
       <c r="Q3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="142" t="s">
+      <c r="R3" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="144">
+      <c r="S3" s="156">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="141" t="s">
+      <c r="T3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="153" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="148" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="135"/>
-      <c r="F4" s="154"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="127"/>
       <c r="K4" s="150"/>
-      <c r="L4" s="158"/>
+      <c r="L4" s="165"/>
       <c r="M4" s="150"/>
       <c r="N4" s="150"/>
       <c r="O4" s="150"/>
@@ -67274,13 +67266,13 @@
         <v>21</v>
       </c>
       <c r="Q4" s="152"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="141"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="153"/>
       <c r="V4" s="148"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -67342,7 +67334,7 @@
       <c r="U5" s="69"/>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -67404,7 +67396,7 @@
       <c r="S6" s="71"/>
       <c r="T6" s="71"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -67467,7 +67459,7 @@
       <c r="T7" s="71"/>
       <c r="U7" s="71"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -67530,7 +67522,7 @@
       <c r="T8" s="73"/>
       <c r="U8" s="73"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -67591,7 +67583,7 @@
       <c r="R9" s="67"/>
       <c r="U9" s="69"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -67651,7 +67643,7 @@
       </c>
       <c r="R10" s="67"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -67726,7 +67718,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -67736,14 +67728,14 @@
       <c r="C12" s="26" t="s">
         <v>3448</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="141" t="s">
         <v>1587</v>
       </c>
-      <c r="E12" s="160" t="str">
+      <c r="E12" s="142" t="str">
         <f>'[1]13-07-63'!$F$6</f>
         <v>ที่ทำการด่านศุลกากร</v>
       </c>
-      <c r="F12" s="161" t="str">
+      <c r="F12" s="143" t="str">
         <f>'[1]13-07-63'!$G$6</f>
         <v>2 ถ.เจ้าฟ้า ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</v>
       </c>
@@ -67783,16 +67775,26 @@
         <f t="shared" si="5"/>
         <v>48.68</v>
       </c>
-      <c r="Q12" s="162">
-        <v>157.28</v>
+      <c r="Q12" s="72">
+        <v>48.68</v>
       </c>
       <c r="R12" s="67"/>
       <c r="S12" s="73"/>
       <c r="T12" s="73"/>
       <c r="U12" s="73"/>
       <c r="V12" s="69"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W12" s="70">
+        <v>48.68</v>
+      </c>
+      <c r="X12" s="70">
+        <f>SUM(W12:W14)</f>
+        <v>157.28</v>
+      </c>
+      <c r="Y12" s="166">
+        <v>157.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -67802,9 +67804,9 @@
       <c r="C13" s="26" t="s">
         <v>3449</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="108" t="s">
         <v>3163</v>
       </c>
@@ -67841,12 +67843,17 @@
         <f t="shared" si="5"/>
         <v>63.66</v>
       </c>
-      <c r="Q13" s="163"/>
+      <c r="Q13" s="72">
+        <v>63.66</v>
+      </c>
       <c r="R13" s="67"/>
       <c r="U13" s="69"/>
       <c r="V13" s="73"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W13" s="70">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="51">
         <v>10</v>
       </c>
@@ -67856,9 +67863,9 @@
       <c r="C14" s="26" t="s">
         <v>3450</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="108" t="s">
         <v>3233</v>
       </c>
@@ -67895,7 +67902,9 @@
         <f t="shared" si="5"/>
         <v>44.94</v>
       </c>
-      <c r="Q14" s="164"/>
+      <c r="Q14" s="72">
+        <v>44.94</v>
+      </c>
       <c r="R14" s="67"/>
       <c r="S14" s="73">
         <f>SUM(O12:O14)</f>
@@ -67912,8 +67921,11 @@
       <c r="V14" s="72">
         <v>157.28</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W14" s="70">
+        <v>44.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="51">
         <v>11</v>
       </c>
@@ -67978,7 +67990,7 @@
       <c r="T15" s="71"/>
       <c r="U15" s="71"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="51">
         <v>12</v>
       </c>
@@ -68645,13 +68657,13 @@
       <c r="C26" s="26" t="s">
         <v>3465</v>
       </c>
-      <c r="D26" s="165" t="s">
+      <c r="D26" s="144" t="s">
         <v>1785</v>
       </c>
-      <c r="E26" s="167" t="s">
+      <c r="E26" s="146" t="s">
         <v>1786</v>
       </c>
-      <c r="F26" s="167" t="s">
+      <c r="F26" s="146" t="s">
         <v>1787</v>
       </c>
       <c r="G26" s="99" t="s">
@@ -68690,11 +68702,20 @@
         <f t="shared" si="5"/>
         <v>142.31</v>
       </c>
-      <c r="Q26" s="162">
+      <c r="Q26" s="69">
+        <v>142.44999999999999</v>
+      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="69">
+        <v>142.44999999999999</v>
+      </c>
+      <c r="T26" s="69">
+        <f>SUM(S26:S27)</f>
         <v>292.25</v>
       </c>
-      <c r="R26" s="67"/>
-      <c r="U26" s="69"/>
+      <c r="U26" s="166">
+        <v>292.25</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="51">
@@ -68706,9 +68727,9 @@
       <c r="C27" s="26" t="s">
         <v>3466</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
       <c r="G27" s="99" t="s">
         <v>3</v>
       </c>
@@ -68745,9 +68766,13 @@
         <f t="shared" si="5"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="Q27" s="164"/>
+      <c r="Q27" s="73">
+        <v>149.80000000000001</v>
+      </c>
       <c r="R27" s="67"/>
-      <c r="S27" s="73"/>
+      <c r="S27" s="73">
+        <v>149.80000000000001</v>
+      </c>
       <c r="T27" s="73"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
@@ -83467,15 +83492,15 @@
       <c r="R261" s="68"/>
       <c r="S261" s="90">
         <f>SUM(S5:S260)</f>
-        <v>2647.0000000000005</v>
+        <v>2939.2500000000005</v>
       </c>
       <c r="T261" s="102">
         <f>SUM(T5:T260)</f>
-        <v>40470.439999999995</v>
+        <v>40762.689999999995</v>
       </c>
       <c r="U261" s="103">
         <f>SUM(U5:U260)</f>
-        <v>40492.769999999997</v>
+        <v>40785.019999999997</v>
       </c>
       <c r="V261" s="103">
         <f>SUM(V5:V260)</f>
@@ -83538,15 +83563,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="Q26:Q27"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -83555,18 +83583,13 @@
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83577,8 +83600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S90"/>
+    <sheetView tabSelected="1" topLeftCell="J73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -83607,26 +83630,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="157" t="s">
         <v>3217</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
       <c r="S1" s="54"/>
       <c r="T1" s="95"/>
       <c r="U1" s="95"/>
@@ -83670,22 +83693,22 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="158" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="160" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="162" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="126"/>
@@ -83693,7 +83716,7 @@
       <c r="L3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="164" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="149" t="s">
@@ -83711,16 +83734,16 @@
       <c r="R3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="144">
+      <c r="T3" s="156">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="141" t="s">
+      <c r="U3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="153" t="s">
         <v>18</v>
       </c>
       <c r="W3" s="148" t="s">
@@ -83731,18 +83754,18 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="135"/>
-      <c r="F4" s="154"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="127"/>
       <c r="K4" s="113"/>
       <c r="L4" s="150"/>
-      <c r="M4" s="158"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="150"/>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
@@ -83750,10 +83773,10 @@
         <v>21</v>
       </c>
       <c r="R4" s="152"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="141"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="153"/>
       <c r="W4" s="148"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
@@ -89738,15 +89761,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -89758,6 +89772,15 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
